--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value128.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value128.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9794983074620431</v>
+        <v>0.5328953266143799</v>
       </c>
       <c r="B1">
-        <v>1.731523459038463</v>
+        <v>0.6724743247032166</v>
       </c>
       <c r="C1">
-        <v>3.803801260172828</v>
+        <v>5.751636505126953</v>
       </c>
       <c r="D1">
-        <v>2.56809870602544</v>
+        <v>1.56080424785614</v>
       </c>
       <c r="E1">
-        <v>1.042646945990899</v>
+        <v>1.002545952796936</v>
       </c>
     </row>
   </sheetData>
